--- a/Spec/Observation/Observation規格 .xlsx
+++ b/Spec/Observation/Observation規格 .xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\蕭實驗室共享檔案夾\MI FHIR\2018_09-01聯測\Observation Resource\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="90" windowWidth="23250" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Observation" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -766,9 +762,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1029,7 +1022,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1039,25 +1032,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="26" customWidth="1"/>
-    <col min="2" max="2" width="33.625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="26" customWidth="1"/>
-    <col min="4" max="4" width="68.625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="46.875" style="26" customWidth="1"/>
-    <col min="6" max="6" width="47.75" style="26" customWidth="1"/>
-    <col min="7" max="7" width="41.25" style="26" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="48.25" style="26" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="33.6328125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="68.6328125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="46.90625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="47.7265625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="41.26953125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="26" customWidth="1"/>
+    <col min="9" max="9" width="48.26953125" style="26" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>150</v>
       </c>
@@ -1070,7 +1063,7 @@
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="25"/>
       <c r="B2" s="9" t="s">
         <v>2</v>
@@ -1097,7 +1090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -1120,7 +1113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>118</v>
@@ -1141,7 +1134,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>137</v>
@@ -1160,7 +1153,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>138</v>
@@ -1179,7 +1172,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="43" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>151</v>
@@ -1206,7 +1199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="27" t="s">
         <v>124</v>
@@ -1227,7 +1220,7 @@
       </c>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="27" t="s">
         <v>26</v>
@@ -1248,7 +1241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="42.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="27" t="s">
         <v>28</v>
@@ -1269,7 +1262,7 @@
       </c>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="27" t="s">
         <v>29</v>
@@ -1290,7 +1283,7 @@
       </c>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="43" x14ac:dyDescent="0.4">
       <c r="A12" s="25"/>
       <c r="B12" s="27" t="s">
         <v>120</v>
@@ -1313,7 +1306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>26</v>
@@ -1332,7 +1325,7 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>28</v>
@@ -1353,7 +1346,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>29</v>
@@ -1376,7 +1369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>33</v>
@@ -1397,7 +1390,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="27" t="s">
         <v>35</v>
       </c>
@@ -1417,7 +1410,7 @@
       </c>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
@@ -1441,7 +1434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
         <v>109</v>
       </c>
@@ -1461,7 +1454,7 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>129</v>
       </c>
@@ -1479,7 +1472,7 @@
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
@@ -1495,7 +1488,7 @@
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>78</v>
       </c>
@@ -1509,7 +1502,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="27" t="s">
         <v>132</v>
       </c>
@@ -1535,7 +1528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="27" t="s">
         <v>145</v>
       </c>
@@ -1553,7 +1546,7 @@
       </c>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="2:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="43" x14ac:dyDescent="0.4">
       <c r="B25" s="27" t="s">
         <v>126</v>
       </c>
@@ -1575,7 +1568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="27" t="s">
         <v>38</v>
       </c>
@@ -1595,7 +1588,7 @@
       </c>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
         <v>46</v>
       </c>
@@ -1611,7 +1604,7 @@
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="27" t="s">
         <v>133</v>
       </c>
@@ -1629,7 +1622,7 @@
       </c>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="27" t="s">
         <v>21</v>
       </c>
@@ -1649,7 +1642,7 @@
       </c>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="27" t="s">
         <v>51</v>
       </c>
@@ -1671,7 +1664,7 @@
       </c>
       <c r="I30" s="25"/>
     </row>
-    <row r="31" spans="2:9" ht="42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="43" hidden="1" x14ac:dyDescent="0.4">
       <c r="B31" s="27" t="s">
         <v>18</v>
       </c>
@@ -1691,7 +1684,7 @@
       </c>
       <c r="I31" s="25"/>
     </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B32" s="27" t="s">
         <v>55</v>
       </c>
@@ -1713,7 +1706,7 @@
       </c>
       <c r="I32" s="25"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="17" t="s">
         <v>57</v>
       </c>
@@ -1731,7 +1724,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="17" t="s">
         <v>58</v>
       </c>
@@ -1749,7 +1742,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="17" t="s">
         <v>92</v>
       </c>
@@ -1767,7 +1760,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="17" t="s">
         <v>94</v>
       </c>
@@ -1785,7 +1778,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="17" t="s">
         <v>81</v>
       </c>
@@ -1803,7 +1796,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="17" t="s">
         <v>83</v>
       </c>
@@ -1821,7 +1814,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="17" t="s">
         <v>85</v>
       </c>
@@ -1839,7 +1832,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="17" t="s">
         <v>59</v>
       </c>
@@ -1857,7 +1850,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" s="17" t="s">
         <v>87</v>
       </c>
@@ -1875,7 +1868,7 @@
       </c>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="17" t="s">
         <v>90</v>
       </c>
@@ -1893,7 +1886,7 @@
       </c>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="17" t="s">
         <v>146</v>
       </c>
@@ -1913,7 +1906,7 @@
       </c>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="17" t="s">
         <v>26</v>
       </c>
@@ -1931,7 +1924,7 @@
       </c>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="17" t="s">
         <v>28</v>
       </c>
@@ -1951,7 +1944,7 @@
       </c>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="17" t="s">
         <v>29</v>
       </c>
@@ -1973,7 +1966,7 @@
       </c>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="17" t="s">
         <v>130</v>
       </c>
@@ -1993,7 +1986,7 @@
       </c>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" s="18" t="s">
         <v>127</v>
       </c>
@@ -2015,7 +2008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="18" t="s">
         <v>38</v>
       </c>
@@ -2037,7 +2030,7 @@
       </c>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>109</v>
       </c>
@@ -2059,7 +2052,7 @@
       </c>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="18" t="s">
         <v>147</v>
       </c>
@@ -2079,7 +2072,7 @@
       </c>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="18" t="s">
         <v>67</v>
       </c>
@@ -2097,7 +2090,7 @@
       </c>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="18" t="s">
         <v>70</v>
       </c>
@@ -2113,7 +2106,7 @@
       </c>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="18" t="s">
         <v>71</v>
       </c>
@@ -2129,7 +2122,7 @@
       </c>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="18" t="s">
         <v>28</v>
       </c>
@@ -2145,7 +2138,7 @@
       </c>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="18" t="s">
         <v>29</v>
       </c>
@@ -2161,7 +2154,7 @@
       </c>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B57" s="18" t="s">
         <v>74</v>
       </c>
@@ -2179,7 +2172,7 @@
       </c>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B58" s="18" t="s">
         <v>70</v>
       </c>
@@ -2195,7 +2188,7 @@
       </c>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B59" s="18" t="s">
         <v>71</v>
       </c>
@@ -2211,7 +2204,7 @@
       </c>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B60" s="18" t="s">
         <v>28</v>
       </c>
@@ -2227,7 +2220,7 @@
       </c>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B61" s="18" t="s">
         <v>29</v>
       </c>
@@ -2243,7 +2236,7 @@
       </c>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B62" s="18" t="s">
         <v>134</v>
       </c>
